--- a/Input/GQE.xlsx
+++ b/Input/GQE.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23902"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryweber/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/abahls_cmap_illinois_gov/Documents/Documents/github_repos/DemographicForecasting/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED3CE5D8-57CE-40DF-A6A8-E485B0E76818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{ED3CE5D8-57CE-40DF-A6A8-E485B0E76818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B402B8D3-D094-4639-97CE-5CBD02E25564}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DCBE1F1F-9690-9742-87D6-3AFFF5D6D310}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DCBE1F1F-9690-9742-87D6-3AFFF5D6D310}"/>
   </bookViews>
   <sheets>
     <sheet name="GQE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GQE!$B$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GQE!$D$1:$D$190</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -497,16 +497,16 @@
   <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D195" sqref="D195"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="5" width="33.625" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="5" width="33.59765625" customWidth="1"/>
+    <col min="6" max="6" width="29.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4310,6 +4310,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D190" xr:uid="{86EB684D-143C-BA4A-AB19-10546832F3B9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>